--- a/数据整理/stocks/A股/科创板/688300-联瑞新材.xlsx
+++ b/数据整理/stocks/A股/科创板/688300-联瑞新材.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>88.90</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.40</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>88.90</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.40</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>87.58</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.19</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,26 +672,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005482</t>
+          <t>010551</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时创新驱动灵活配置混合A</t>
+          <t>淳厚欣颐一年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>72.78</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>66.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -650,25 +710,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005483</t>
+          <t>005482</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时创新驱动灵活配置混合C</t>
+          <t>博时创新驱动灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>72.78</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.91</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -678,26 +748,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010551</t>
+          <t>005483</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>淳厚欣颐一年持有期混合</t>
+          <t>博时创新驱动灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>66.79</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>72.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688300-联瑞新材.xlsx
+++ b/数据整理/stocks/A股/科创板/688300-联瑞新材.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1861</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>68.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>68.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688300-联瑞新材.xlsx
+++ b/数据整理/stocks/A股/科创板/688300-联瑞新材.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -954,4 +955,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2436</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1279</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>70.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688300-联瑞新材.xlsx
+++ b/数据整理/stocks/A股/科创板/688300-联瑞新材.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688300-联瑞新材.xlsx
+++ b/数据整理/stocks/A股/科创板/688300-联瑞新材.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1210,7 +1211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,17 +1222,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1241,14 +1262,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.47</v>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7749</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1257,14 +1300,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.35</v>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2937</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1273,14 +1338,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.15</v>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2221</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1289,13 +1376,529 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010602</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688300-联瑞新材.xlsx
+++ b/数据整理/stocks/A股/科创板/688300-联瑞新材.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1797,7 +1798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1808,17 +1809,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1828,14 +1849,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.93</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="3">
@@ -1844,14 +1939,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>0.47</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="4">
@@ -1860,14 +1955,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.35</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="5">
@@ -1876,14 +1971,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="6">
@@ -1892,13 +1987,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688300-联瑞新材.xlsx
+++ b/数据整理/stocks/A股/科创板/688300-联瑞新材.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,167 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001120</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方睿鑫热点挖掘灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>88.90</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0751</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001121</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东方睿鑫热点挖掘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.90</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0675</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="D4" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001614</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>东方区域发展混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.58</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -626,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -687,101 +649,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>66.79</t>
+          <t>81.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1372</t>
+          <t>0.0924</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005482</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时创新驱动灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>72.78</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0090</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005483</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博时创新驱动灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>72.78</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -796,7 +682,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -817,7 +703,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -847,36 +733,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010551</t>
+          <t>506003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>淳厚欣颐一年持有期混合</t>
+          <t>富国科创板两年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>31.50</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>74.00</t>
+          <t>99.35</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1861</t>
+          <t>0.7749</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -885,36 +771,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007811</t>
+          <t>009931</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>淳厚信泽灵活配置混合A</t>
+          <t>淳厚欣享一年持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>14.54</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>68.08</t>
+          <t>92.22</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1242</t>
+          <t>0.2937</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -923,36 +809,452 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2221</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010602</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>007812</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>淳厚信泽灵活配置混合C</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>68.08</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0351</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1212,7 +1514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1233,7 +1535,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1263,36 +1565,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>506003</t>
+          <t>010551</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国科创板两年定期开放混合</t>
+          <t>淳厚欣颐一年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>31.50</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.35</t>
+          <t>74.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7749</t>
+          <t>0.1861</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1301,36 +1603,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009931</t>
+          <t>007811</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>淳厚欣享一年持有期混合A</t>
+          <t>淳厚信泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.54</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>68.08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2937</t>
+          <t>0.1242</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1339,452 +1641,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010551</t>
+          <t>007812</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>淳厚欣颐一年持有期混合</t>
+          <t>淳厚信泽灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.57</t>
+          <t>68.08</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2221</t>
+          <t>0.0351</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
         <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007811</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>淳厚信泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>76.45</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1633</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010602</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>长城均衡优选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.87</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1428</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001707</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>诺安高端制造股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.89</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1119</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008186</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>淳厚信睿核心精选混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.53</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0942</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009939</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>淳厚欣享一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.22</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0469</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008187</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>淳厚信睿核心精选混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.53</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0384</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>007812</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>淳厚信泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>76.45</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0333</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004352</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>北信瑞丰研究精选股票</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.91</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0078</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>007808</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>北信瑞丰量化优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>79.77</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0027</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>166107</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>信达澳银量化多因子混合（LOF）A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.61</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>166108</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>信达澳银量化多因子混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.61</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1798,7 +1684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1819,7 +1705,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1859,25 +1745,101 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.14</t>
+          <t>66.79</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0924</t>
+          <t>0.1372</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1892,128 +1854,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.93</v>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.15</v>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688300-联瑞新材.xlsx
+++ b/数据整理/stocks/A股/科创板/688300-联瑞新材.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1.93</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>0.47</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.35</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -583,6 +600,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>014651</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>60.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011901</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>69.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014652</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>60.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011902</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>69.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -676,7 +939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1262,7 +1525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1501,176 +1764,6 @@
       </c>
       <c r="H6" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010551</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>淳厚欣颐一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.35</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>74.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1861</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007811</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>淳厚信泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>68.08</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1242</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007812</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>淳厚信泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>68.08</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0351</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1745,26 +1838,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>66.79</t>
+          <t>74.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1372</t>
+          <t>0.1861</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1773,36 +1866,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005482</t>
+          <t>007811</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时创新驱动灵活配置混合A</t>
+          <t>淳厚信泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>72.78</t>
+          <t>68.08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0090</t>
+          <t>0.1242</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1811,36 +1904,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005483</t>
+          <t>007812</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时创新驱动灵活配置混合C</t>
+          <t>淳厚信泽灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>72.78</t>
+          <t>68.08</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.0351</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1849,6 +1942,176 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>66.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688300-联瑞新材.xlsx
+++ b/数据整理/stocks/A股/科创板/688300-联瑞新材.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1.93</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>0.47</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.35</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -600,6 +617,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>014651</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>68.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001723</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014652</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>68.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -845,7 +1070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -939,7 +1164,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1525,7 +1750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1764,176 +1989,6 @@
       </c>
       <c r="H6" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010551</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>淳厚欣颐一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.35</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>74.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1861</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007811</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>淳厚信泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>68.08</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1242</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007812</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>淳厚信泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>68.08</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0351</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2008,26 +2063,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>66.79</t>
+          <t>74.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1372</t>
+          <t>0.1861</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2036,36 +2091,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005482</t>
+          <t>007811</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时创新驱动灵活配置混合A</t>
+          <t>淳厚信泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>72.78</t>
+          <t>68.08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0090</t>
+          <t>0.1242</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2074,36 +2129,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005483</t>
+          <t>007812</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时创新驱动灵活配置混合C</t>
+          <t>淳厚信泽灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>72.78</t>
+          <t>68.08</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.0351</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2112,6 +2167,176 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>66.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
